--- a/venv/maple_daily_quest_index.xlsx
+++ b/venv/maple_daily_quest_index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeMyeonggyu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LeeMyeonggyu\PycharmProjects\maple_ocr\venv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BA7C19-F44F-4725-BEB7-7F07876E5176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658E4DE1-02EC-463F-863C-411222242861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="129">
   <si>
     <t>일퀘이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -712,10 +712,6 @@
     <t>빼앗긴 과일 50개 회수 </t>
   </si>
   <si>
-    <t>난이도(1-7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -1115,6 +1111,18 @@
   </si>
   <si>
     <t>어둠의 집행자 고리 50개 수집</t>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>난이도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1510,10 +1518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:E305"/>
+  <dimension ref="C2:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1522,446 +1530,605 @@
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="5" t="s">
+    <row r="5" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D5" s="5" t="s">
-        <v>3</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" t="s">
+        <v>128</v>
+      </c>
       <c r="D6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D7" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
       <c r="D8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D9" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D11" s="7" t="s">
+    <row r="12" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D12" s="5" t="s">
+    <row r="13" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D13" s="5" t="s">
+    <row r="14" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D14" s="5" t="s">
+    <row r="15" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D15" s="5" t="s">
+    <row r="16" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D16" s="5" t="s">
+    <row r="17" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D17" s="5" t="s">
+    <row r="18" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D18" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18">
+    <row r="19" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D19" s="5" t="s">
+    <row r="20" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D20" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="E20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>128</v>
+      </c>
       <c r="D21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D22" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>128</v>
+      </c>
       <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D24" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>128</v>
+      </c>
       <c r="D25" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C26" t="s">
+        <v>128</v>
+      </c>
       <c r="D26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D27" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="E27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
       <c r="D28" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E28">
+      <c r="E29">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D29" s="5" t="s">
+    <row r="30" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="E30">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
       <c r="D31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D32" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="E32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D34" s="3" t="s">
+    <row r="35" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D35" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D36" s="1" t="s">
-        <v>31</v>
+      <c r="C36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
       <c r="D37" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C38" t="s">
+        <v>28</v>
+      </c>
       <c r="D38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
       <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39">
+      <c r="E40">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="E40">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D41" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
       <c r="D42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="E42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D43" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E43">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D44" s="4" t="s">
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D45" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D46" s="4" t="s">
+      <c r="C46" t="s">
+        <v>28</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>51</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D47" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C48" t="s">
+        <v>28</v>
+      </c>
       <c r="D48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E48">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D49" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="E49">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>28</v>
+      </c>
       <c r="D50" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E50">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D51" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>28</v>
+      </c>
       <c r="D52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C53" t="s">
+        <v>28</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E52">
+      <c r="E53">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D53" s="1" t="s">
+    <row r="54" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C54" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E53">
+      <c r="E54">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D54" s="1" t="s">
+    <row r="55" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E54">
+      <c r="E55">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D55" s="1" t="s">
+    <row r="56" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E55">
+      <c r="E56">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D56" s="1" t="s">
+    <row r="57" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C57" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D57" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E57">
         <v>7</v>
@@ -1969,556 +2136,762 @@
     </row>
     <row r="58" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C58" t="s">
+        <v>28</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D59" s="1" t="s">
+    <row r="60" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D60" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
       <c r="D61" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D62" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="E62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D63" s="4" t="s">
-        <v>117</v>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E63">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
       <c r="D64" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D65" s="1" t="s">
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D66" s="1" t="s">
+    <row r="67" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D67" s="2" t="s">
+    <row r="68" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E68">
+    <row r="69" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D69" s="1" t="s">
+    <row r="70" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D70" s="1" t="s">
+    <row r="71" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D71" s="2" t="s">
+    <row r="72" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C72" t="s">
+    <row r="73" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C73" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="8"/>
+    </row>
+    <row r="74" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D74" s="1" t="s">
+    <row r="75" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D75" s="2" t="s">
+    <row r="76" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D76" s="1" t="s">
+    <row r="77" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C77" t="s">
+        <v>66</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="E76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D77" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C78" t="s">
+        <v>66</v>
+      </c>
       <c r="D78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D79" s="1" t="s">
+    <row r="80" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C80" t="s">
+        <v>66</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D80" s="4" t="s">
+    <row r="81" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D81" s="1" t="s">
+    <row r="82" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C82" t="s">
+        <v>66</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D82" s="1" t="s">
+    <row r="83" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C83" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="E82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D83" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="E83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D84" s="9" t="s">
-        <v>119</v>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C85" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E85">
         <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D85" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
       </c>
     </row>
     <row r="86" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C87" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="87" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D87" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E87">
+    <row r="88" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C88" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D88" s="2" t="s">
+    <row r="89" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D89" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E89">
         <v>2</v>
       </c>
     </row>
     <row r="90" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C90" t="s">
+        <v>78</v>
+      </c>
       <c r="D90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C91" t="s">
+        <v>78</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="E90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D91" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E91">
         <v>4</v>
       </c>
     </row>
     <row r="92" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C92" t="s">
+        <v>78</v>
+      </c>
       <c r="D92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D93" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
     </row>
     <row r="94" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C94" t="s">
+        <v>78</v>
+      </c>
       <c r="D94" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E94">
         <v>3</v>
       </c>
     </row>
     <row r="95" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C95" t="s">
+        <v>78</v>
+      </c>
       <c r="D95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C96" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="E95">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="96" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D96" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E96">
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D97" s="1" t="s">
-        <v>87</v>
+    <row r="97" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E97">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D98" s="2" t="s">
+    <row r="98" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C99" t="s">
+        <v>78</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E98">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D99" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
     </row>
     <row r="100" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C100" t="s">
+        <v>78</v>
+      </c>
       <c r="D100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D101" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E101">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D102" s="1" t="s">
+    <row r="102" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C102" t="s">
+        <v>78</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C103" t="s">
+        <v>78</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="103" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D103" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E103">
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D104" s="1" t="s">
-        <v>94</v>
+    <row r="104" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E104">
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D105" s="2" t="s">
-        <v>95</v>
+    <row r="105" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C105" t="s">
+        <v>78</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E105">
         <v>6</v>
       </c>
     </row>
     <row r="106" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C106" t="s">
+        <v>78</v>
+      </c>
       <c r="D106" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E106">
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C107" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C108" t="s">
         <v>97</v>
       </c>
-      <c r="D107" s="8"/>
-    </row>
-    <row r="108" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="8"/>
+    </row>
+    <row r="109" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C109" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D109" s="1" t="s">
+    <row r="110" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C110" t="s">
+        <v>97</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D110" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C111" t="s">
+        <v>97</v>
+      </c>
       <c r="D111" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C112" t="s">
+        <v>97</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D112" s="1" t="s">
+    <row r="113" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C113" t="s">
+        <v>97</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D113" s="1" t="s">
+    <row r="114" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C114" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D114" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E114">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C115" t="s">
+        <v>97</v>
+      </c>
       <c r="D115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C116" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D116" s="1" t="s">
+    <row r="117" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C117" t="s">
+        <v>97</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D117" s="1" t="s">
+    <row r="118" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C118" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D118" s="1" t="s">
+    <row r="119" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C119" t="s">
+        <v>97</v>
+      </c>
+      <c r="D119" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="E118">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D119" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E119">
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C120" t="s">
+        <v>97</v>
+      </c>
       <c r="D120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C121" t="s">
+        <v>97</v>
+      </c>
+      <c r="D121" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D121" s="1" t="s">
+    <row r="122" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C122" t="s">
+        <v>97</v>
+      </c>
+      <c r="D122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D122" s="1" t="s">
+    <row r="123" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C123" t="s">
+        <v>97</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="E122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D123" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="E123">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D124" s="10" t="s">
-        <v>123</v>
+    <row r="124" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C124" t="s">
+        <v>97</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E124">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="125" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C125" t="s">
+        <v>97</v>
+      </c>
       <c r="D125" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E125">
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C126" t="s">
+        <v>97</v>
+      </c>
       <c r="D126" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E126">
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C127" t="s">
+        <v>97</v>
+      </c>
       <c r="D127" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E127">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="4:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D128" s="1"/>
+    <row r="128" spans="3:5" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C128" t="s">
+        <v>97</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
     </row>
     <row r="129" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D129" s="1"/>
@@ -2529,7 +2902,9 @@
     <row r="131" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="132" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D132" s="1"/>
+    </row>
     <row r="133" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="134" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="135" spans="4:4" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2604,7 +2979,7 @@
     <row r="204" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="205" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="206" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="207" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="207" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="208" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="209" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="210" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2703,6 +3078,7 @@
     <row r="303" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="304" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="305" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="306" ht="20" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
